--- a/df_log_20250405.xlsx
+++ b/df_log_20250405.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1153D5C-DA59-43C7-A9A9-FA9B9688B334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631F882-AAD8-4BB4-A683-3FEAA5798D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="448">
   <si>
     <t>SITE_NAME</t>
   </si>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -3879,7 +3879,10 @@
         <v>322</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
